--- a/medicine/Mort/Todor_Aleksandrov/Todor_Aleksandrov.xlsx
+++ b/medicine/Mort/Todor_Aleksandrov/Todor_Aleksandrov.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Todor Aleksandrov (en macédonien : Тодор Александров) est un révolutionnaire bulgare[1] né le 4 mars 1881 à Novo Selo, près de Štip (aujourd'hui en Macédoine du Nord) et décédé le 31 août 1924 à Sugarevo (Bulgarie).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Todor Aleksandrov (en macédonien : Тодор Александров) est un révolutionnaire bulgare né le 4 mars 1881 à Novo Selo, près de Štip (aujourd'hui en Macédoine du Nord) et décédé le 31 août 1924 à Sugarevo (Bulgarie).
 Chef du mouvement révolutionnaire macédonien en Macédoine, il est l'un des fondateurs des Comités révolutionnaires macédoniens d'Andrinople-Macédoine (BMARC) et de l'Organisation révolutionnaire intérieure macédonienne (ORIM), des groupes rebelles actifs en Macédoine ottomane et en Thrace à la fin du XIXe siècle et au début du XXe siècle.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans le cadre de guerres de factions au sein de l'ORIM, il fait assassiner Naum Tiufekchiev le 25 février 1916 à Sofia, en Bulgarie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cadre de guerres de factions au sein de l'ORIM, il fait assassiner Naum Tiufekchiev le 25 février 1916 à Sofia, en Bulgarie.
 </t>
         </is>
       </c>
